--- a/заказы/филиалы и опт/2024/05,24/21,05,24 Ост КИ филиалы/дв 21,05,24 млрсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/05,24/21,05,24 Ост КИ филиалы/дв 21,05,24 млрсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\21,05,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\05,24\21,05,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0410AD-F4C3-41A1-B7E6-0969E36499D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BDF08-65F4-460F-8DD0-AFDCC1021C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AD$107</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="163">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>25,05,(2)</t>
+  </si>
+  <si>
+    <t>матрица</t>
+  </si>
+  <si>
+    <t>матрица / новинка</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1005,10 @@
   <dimension ref="A1:AY485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC100" sqref="AC100"/>
+      <selection pane="bottomRight" activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1018,7 @@
     <col min="3" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="20" width="6.42578125" customWidth="1"/>
     <col min="21" max="21" width="14.140625" customWidth="1"/>
     <col min="22" max="23" width="5.140625" customWidth="1"/>
@@ -1542,7 +1548,9 @@
       <c r="H7" s="1">
         <v>60</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
@@ -1660,7 +1668,9 @@
       <c r="H8" s="1">
         <v>120</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J8" s="1">
         <v>42.2</v>
       </c>
@@ -1775,7 +1785,9 @@
       <c r="H9" s="1">
         <v>45</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J9" s="1">
         <v>300</v>
       </c>
@@ -2098,7 +2110,9 @@
       <c r="H12" s="1">
         <v>45</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J12" s="1">
         <v>408</v>
       </c>
@@ -2215,7 +2229,9 @@
       <c r="H13" s="1">
         <v>60</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J13" s="1">
         <v>799.89499999999998</v>
       </c>
@@ -2334,7 +2350,9 @@
       <c r="H14" s="1">
         <v>120</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J14" s="1">
         <v>42.1</v>
       </c>
@@ -2552,7 +2570,9 @@
       <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J16" s="1">
         <v>519.875</v>
       </c>
@@ -2675,7 +2695,9 @@
       <c r="H17" s="1">
         <v>120</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J17" s="1">
         <v>644</v>
       </c>
@@ -2903,7 +2925,9 @@
       <c r="H19" s="1">
         <v>120</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J19" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -3012,7 +3036,9 @@
       <c r="H20" s="26">
         <v>60</v>
       </c>
-      <c r="I20" s="26"/>
+      <c r="I20" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J20" s="26">
         <v>49.5</v>
       </c>
@@ -3237,7 +3263,9 @@
       <c r="H22" s="1">
         <v>45</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J22" s="1">
         <v>640.09400000000005</v>
       </c>
@@ -3357,7 +3385,9 @@
       <c r="H23" s="1">
         <v>60</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J23" s="1">
         <v>177.3</v>
       </c>
@@ -3475,7 +3505,9 @@
       <c r="H24" s="1">
         <v>120</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J24" s="1">
         <v>380</v>
       </c>
@@ -3591,7 +3623,9 @@
       <c r="H25" s="1">
         <v>45</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J25" s="1">
         <v>716.85</v>
       </c>
@@ -3712,7 +3746,9 @@
       <c r="H26" s="1">
         <v>60</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J26" s="1">
         <v>504</v>
       </c>
@@ -3830,7 +3866,9 @@
       <c r="H27" s="1">
         <v>120</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J27" s="1">
         <v>628</v>
       </c>
@@ -3951,7 +3989,9 @@
       <c r="H28" s="1">
         <v>120</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J28" s="1">
         <v>26.7</v>
       </c>
@@ -4064,7 +4104,9 @@
       <c r="H29" s="1">
         <v>45</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J29" s="1">
         <v>295</v>
       </c>
@@ -4183,7 +4225,9 @@
       <c r="H30" s="1">
         <v>60</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J30" s="1">
         <v>528.36500000000001</v>
       </c>
@@ -4301,7 +4345,9 @@
       <c r="H31" s="1">
         <v>120</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J31" s="1">
         <v>57</v>
       </c>
@@ -4520,7 +4566,9 @@
       <c r="H33" s="1">
         <v>45</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J33" s="1">
         <v>137</v>
       </c>
@@ -4639,7 +4687,9 @@
       <c r="H34" s="1">
         <v>60</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J34" s="1">
         <v>71</v>
       </c>
@@ -4756,7 +4806,9 @@
       <c r="H35" s="1">
         <v>60</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J35" s="1">
         <v>72.8</v>
       </c>
@@ -4990,7 +5042,9 @@
       <c r="H37" s="1">
         <v>45</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J37" s="1">
         <v>232</v>
       </c>
@@ -5109,7 +5163,9 @@
       <c r="H38" s="1">
         <v>45</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J38" s="1">
         <v>1664.048</v>
       </c>
@@ -5334,7 +5390,9 @@
       <c r="H40" s="1">
         <v>45</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J40" s="1">
         <v>181</v>
       </c>
@@ -5561,7 +5619,9 @@
       <c r="H42" s="1">
         <v>45</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J42" s="1">
         <v>384</v>
       </c>
@@ -5788,7 +5848,9 @@
       <c r="H44" s="1">
         <v>45</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J44" s="1">
         <v>452.12</v>
       </c>
@@ -5909,7 +5971,9 @@
       <c r="H45" s="1">
         <v>45</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J45" s="1">
         <v>163</v>
       </c>
@@ -6023,7 +6087,9 @@
       <c r="H46" s="1">
         <v>60</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J46" s="1">
         <v>453</v>
       </c>
@@ -6145,7 +6211,9 @@
       <c r="H47" s="1">
         <v>60</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J47" s="1">
         <v>281</v>
       </c>
@@ -6366,7 +6434,9 @@
       <c r="H49" s="1">
         <v>60</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J49" s="1">
         <v>373.5</v>
       </c>
@@ -6591,7 +6661,9 @@
       <c r="H51" s="1">
         <v>60</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J51" s="1">
         <v>92</v>
       </c>
@@ -6709,7 +6781,9 @@
       <c r="H52" s="1">
         <v>60</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J52" s="1">
         <v>187.4</v>
       </c>
@@ -6828,7 +6902,9 @@
       <c r="H53" s="1">
         <v>45</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J53" s="1">
         <v>244</v>
       </c>
@@ -7053,7 +7129,9 @@
       <c r="H55" s="1">
         <v>60</v>
       </c>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J55" s="1">
         <v>120</v>
       </c>
@@ -7913,7 +7991,9 @@
       <c r="H63" s="1">
         <v>45</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J63" s="1">
         <v>267.815</v>
       </c>
@@ -8033,7 +8113,9 @@
       <c r="H64" s="1">
         <v>45</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J64" s="1">
         <v>995</v>
       </c>
@@ -8153,7 +8235,9 @@
       <c r="H65" s="1">
         <v>45</v>
       </c>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J65" s="1">
         <v>862</v>
       </c>
@@ -8273,7 +8357,9 @@
       <c r="H66" s="1">
         <v>45</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J66" s="1">
         <v>967</v>
       </c>
@@ -8498,7 +8584,9 @@
       <c r="H68" s="1">
         <v>45</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J68" s="1">
         <v>1049</v>
       </c>
@@ -8726,7 +8814,9 @@
       <c r="H70" s="1">
         <v>45</v>
       </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J70" s="1">
         <v>754</v>
       </c>
@@ -9066,7 +9156,9 @@
       <c r="H73" s="1">
         <v>45</v>
       </c>
-      <c r="I73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J73" s="1">
         <v>103</v>
       </c>
@@ -9183,7 +9275,9 @@
       <c r="H74" s="1">
         <v>45</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J74" s="1">
         <v>719</v>
       </c>
@@ -9299,7 +9393,9 @@
       <c r="H75" s="1">
         <v>45</v>
       </c>
-      <c r="I75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J75" s="1">
         <v>402</v>
       </c>
@@ -9629,7 +9725,9 @@
       <c r="H78" s="1">
         <v>60</v>
       </c>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J78" s="1">
         <v>211.255</v>
       </c>
@@ -9749,7 +9847,9 @@
       <c r="H79" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J79" s="1">
         <v>56</v>
       </c>
@@ -9863,7 +9963,9 @@
       <c r="H80" s="1">
         <v>45</v>
       </c>
-      <c r="I80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J80" s="1">
         <v>426</v>
       </c>
@@ -9978,7 +10080,9 @@
       <c r="H81" s="1">
         <v>45</v>
       </c>
-      <c r="I81" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J81" s="1">
         <v>172</v>
       </c>
@@ -10096,7 +10200,9 @@
       <c r="H82" s="1">
         <v>45</v>
       </c>
-      <c r="I82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J82" s="1">
         <v>393</v>
       </c>
@@ -10214,7 +10320,9 @@
       <c r="H83" s="1">
         <v>30</v>
       </c>
-      <c r="I83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J83" s="1">
         <v>81</v>
       </c>
@@ -10327,7 +10435,9 @@
       <c r="H84" s="1">
         <v>45</v>
       </c>
-      <c r="I84" s="1"/>
+      <c r="I84" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1">
         <f t="shared" ref="K84:K85" si="61">E84-J84</f>
@@ -10436,7 +10546,9 @@
       <c r="H85" s="1">
         <v>45</v>
       </c>
-      <c r="I85" s="1"/>
+      <c r="I85" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1">
         <f t="shared" si="61"/>
@@ -10541,7 +10653,9 @@
       <c r="H86" s="1">
         <v>45</v>
       </c>
-      <c r="I86" s="1"/>
+      <c r="I86" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1">
         <f t="shared" si="45"/>
@@ -10650,7 +10764,9 @@
       <c r="H87" s="1">
         <v>45</v>
       </c>
-      <c r="I87" s="1"/>
+      <c r="I87" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1">
         <f t="shared" ref="K87" si="64">E87-J87</f>
@@ -10759,7 +10875,9 @@
       <c r="H88" s="1">
         <v>45</v>
       </c>
-      <c r="I88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1">
         <f t="shared" ref="K88:K89" si="67">E88-J88</f>
@@ -10868,7 +10986,9 @@
       <c r="H89" s="1">
         <v>45</v>
       </c>
-      <c r="I89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1">
         <f t="shared" si="67"/>
@@ -10977,7 +11097,9 @@
       <c r="H90" s="1">
         <v>45</v>
       </c>
-      <c r="I90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1">
         <f t="shared" ref="K90:K92" si="70">E90-J90</f>
@@ -11086,7 +11208,9 @@
       <c r="H91" s="1">
         <v>45</v>
       </c>
-      <c r="I91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1">
         <f t="shared" si="70"/>
@@ -11195,7 +11319,9 @@
       <c r="H92" s="1">
         <v>45</v>
       </c>
-      <c r="I92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1">
         <f t="shared" si="70"/>
@@ -11300,7 +11426,9 @@
       <c r="H93" s="1">
         <v>45</v>
       </c>
-      <c r="I93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1">
         <f t="shared" ref="K93:K102" si="73">E93-J93</f>
@@ -11409,7 +11537,9 @@
       <c r="H94" s="1">
         <v>45</v>
       </c>
-      <c r="I94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1">
         <f t="shared" ref="K94" si="74">E94-J94</f>
@@ -11522,7 +11652,9 @@
       <c r="H95" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J95" s="1">
         <v>180</v>
       </c>
@@ -11642,7 +11774,9 @@
       <c r="H96" s="1">
         <v>60</v>
       </c>
-      <c r="I96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J96" s="1">
         <v>178</v>
       </c>
@@ -11760,7 +11894,9 @@
       <c r="H97" s="1">
         <v>60</v>
       </c>
-      <c r="I97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J97" s="1">
         <v>110</v>
       </c>
@@ -11876,7 +12012,9 @@
       <c r="H98" s="1">
         <v>60</v>
       </c>
-      <c r="I98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J98" s="1">
         <v>151</v>
       </c>
